--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9B6D0-EE1E-4B3E-BEE4-B31EB2B85C89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,13 +93,17 @@
   </si>
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -261,23 +264,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -313,23 +299,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -577,7 +546,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
